--- a/variaveis explicativas.xlsx
+++ b/variaveis explicativas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f8564619\Documents\Predição Sell Off\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f8564619\Documents\GitHub\RiskAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Indice</t>
   </si>
@@ -204,13 +204,36 @@
     <t>Units:  Percent, Not Seasonally Adjusted
 Frequency:  Daily
 Series is calculated as the spread between Moody's Seasoned Aaa Corporate Bond© and 10-Year Treasury Constant Maturity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBOE DJIA Volatility Index </t>
+  </si>
+  <si>
+    <t>Units:  Index, Not Seasonally Adjusted
+Frequency:  Daily, Close
+Chicago Board Optios Exchange, CBOE DJIA Volatility Index [VXDCLS], retrieved from FRED, Federal Reserve Bank of St. Louis; https://fred.stlouisfed.org/series/VXDCLS, February 8, 2022.</t>
+  </si>
+  <si>
+    <t>VXDCLS</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/VXDCLS</t>
+  </si>
+  <si>
+    <t>USTREASURY/YIELD</t>
+  </si>
+  <si>
+    <t>These rates are commonly referred to as "Constant Maturity Treasury" rates, or CMTs. Yields are interpolated by the Treasury from the daily yield curve. This curve, which relates the yield on a security to its time to maturity is based on the closing market bid yields on actively traded Treasury securities in the over-the-counter market. These market yields are calculated from composites of quotations obtained by the Federal Reserve Bank of New York. The yield values are read from the yield curve at fixed maturities, currently 1, 3 and 6 months and 1, 2, 3, 5, 7, 10, 20, and 30 years. This method provides a yield for a 10 year maturity, for example, even if no outstanding security has exactly 10 years remaining to maturity.</t>
+  </si>
+  <si>
+    <t>Treasury Yield Curve Rates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +245,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,10 +275,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -258,8 +290,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -298,12 +334,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Indice" dataDxfId="6"/>
-    <tableColumn id="2" name="descrição " dataDxfId="5"/>
-    <tableColumn id="3" name="fonte" dataDxfId="4"/>
+    <tableColumn id="1" name="Indice" dataDxfId="4"/>
+    <tableColumn id="2" name="descrição " dataDxfId="3"/>
+    <tableColumn id="3" name="fonte" dataDxfId="2"/>
     <tableColumn id="4" name="cod" dataDxfId="1"/>
     <tableColumn id="5" name="link" dataDxfId="0"/>
   </tableColumns>
@@ -574,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +740,7 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -727,94 +763,125 @@
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>